--- a/ModelSnake.xlsx
+++ b/ModelSnake.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="B2:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,12 +657,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -682,7 +677,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -706,7 +701,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -730,7 +725,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -754,7 +749,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>

--- a/ModelSnake.xlsx
+++ b/ModelSnake.xlsx
@@ -17,8 +17,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,7 +399,7 @@
   <dimension ref="B2:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +644,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -657,7 +667,6 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -708,8 +717,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -732,7 +740,6 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
